--- a/2136kanjivaamdoc.xlsx
+++ b/2136kanjivaamdoc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Downloads\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AA741B-2E31-476F-9788-09A55A7CD570}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F35676-287C-44BE-A3F3-827B4E03FC67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{0E68F4E2-8A46-44BD-8634-2F057983B396}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12275" uniqueCount="4325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12295" uniqueCount="4351">
   <si>
     <t>亜</t>
   </si>
@@ -16033,6 +16033,93 @@
       </rPr>
       <t> </t>
     </r>
+  </si>
+  <si>
+    <t>Ủy thác, giao phó cho việc gì gọi là ủy. Như ủy quyền [委權] trao quyền của mình cho người khác.</t>
+  </si>
+  <si>
+    <t>イ, おどす,    おどし ,  おどかす</t>
+  </si>
+  <si>
+    <t>Oai, cái dáng tôn nghiêm đáng sợ gọi là uy. Như phát uy [發威] ra oai.</t>
+  </si>
+  <si>
+    <t>VI, VỊ</t>
+  </si>
+  <si>
+    <t>イ, ため  ,  なる,     な す   , する    たり   , つくる ,   なり</t>
+  </si>
+  <si>
+    <t>Dùng như chữ vi [爲].</t>
+  </si>
+  <si>
+    <t>ÚY</t>
+  </si>
+  <si>
+    <t>イ、おそれる    ,かしこまる,    かしこ    ,かしこし</t>
+  </si>
+  <si>
+    <t>Sợ. Tâm phục. Trong lòng có mối lo phải răn giữ gọi là úy. Phạm tội chết trong ngục</t>
+  </si>
+  <si>
+    <t>VỊ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 田 ĐIỀN 月 NGUYỆT
+Nghĩa: Dạ dày, dùng để đựng và tiêu hóa đồ ăn. Tục gọi sự muốn ăn là vị khẩu [胃口]. Sao Vị, một ngôi sao trong nhị thập bát tú.</t>
+  </si>
+  <si>
+    <t>イ,ジョウ</t>
+  </si>
+  <si>
+    <t>ÚY, UẤT</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 寸 THỐN
+Nghĩa: Quan úy, các quan coi ngục và bắt trộm giặc đời xưa đều gọi là úy. Quân úy, quan binh đời Tần đều gọi là úy. Một âm là uất.</t>
+  </si>
+  <si>
+    <t>DỊ, DI</t>
+  </si>
+  <si>
+    <t>イ, こと   , ことなる  ,  け</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 田 ĐIỀN 共 CỘNG, CUNG
+Nghĩa: Khác, trái lại với tiếng cùng. Khác lạ. Quái lạ. Chia lìa. Khác. Đường riêng. Dị dạng của chữ [异].</t>
+  </si>
+  <si>
+    <t>DI, DỊ, SỈ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 禾 HÒA 多 ĐA
+Nghĩa: Dời đi. Biến dời. Ông quan này đưa tờ cho ông quan cùng hàng khác gọi là di văn [移文]. Một âm là dị. Lại một âm là sỉ.</t>
+  </si>
+  <si>
+    <t>NUY</t>
+  </si>
+  <si>
+    <t>イ、な   , しおれる   , しなびる    ,しぼむ   , なえる</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 艹 THẢO 委 ỦY, UY
+Nghĩa: Héo, cây cỏ héo. Ốm chết. Nuy nhuy [萎蕤] hoa nuy nhuy, có khi gọi là uy nhuy [葳蕤], dùng để làm thuốc.</t>
+  </si>
+  <si>
+    <t>VĨ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 亻 NHÂN 韋 VI
+Nghĩa: Lạ, lớn.
+Giải nghĩa:
+Lạ, lớn. Như tú vĩ [秀偉] tuấn tú lạ, vĩ dị [偉異] lớn lao lạ, v.v. đều là dùng để hình dung sự vật gì quí báu, hiếm có, và hình vóc cao lớn khác thường cả. Người nào có công to nghiệp lớn đều gọi là vĩ nhân [偉人].</t>
+  </si>
+  <si>
+    <t>Y, Ỷ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 木 MỘC 奇 KÌ, CƠ
+Nghĩa: Cây y, một loài cây lớn, lá hình trái tim, mùa hạ nở hoa màu vàng, gỗ dùng được. Một âm là ỷ.</t>
   </si>
 </sst>
 </file>
@@ -16109,10 +16196,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16429,8 +16519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1F94B5-2063-41A9-AB28-68C4F06C16DB}">
   <dimension ref="A1:M2159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17128,6 +17218,9 @@
       <c r="L21" t="s">
         <v>3470</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>4325</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A22">
@@ -17155,7 +17248,10 @@
         <v>3461</v>
       </c>
       <c r="L22" t="s">
-        <v>34</v>
+        <v>4326</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>4327</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.4">
@@ -17183,9 +17279,14 @@
       <c r="J23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>4328</v>
+      </c>
       <c r="L23" t="s">
-        <v>34</v>
+        <v>4329</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>4330</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.4">
@@ -17213,12 +17314,17 @@
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>4331</v>
+      </c>
       <c r="L24" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+        <v>4332</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="62.25" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -17240,12 +17346,17 @@
       <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>4334</v>
+      </c>
       <c r="L25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="M25" s="3" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="62.25" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -17267,12 +17378,17 @@
       <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>4337</v>
+      </c>
       <c r="L26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+        <v>4336</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -17294,12 +17410,17 @@
       <c r="J27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>4339</v>
+      </c>
       <c r="L27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+        <v>4340</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="62.25" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -17321,12 +17442,17 @@
       <c r="J28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>4342</v>
+      </c>
       <c r="L28" t="s">
         <v>3472</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="M28" s="3" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -17351,12 +17477,17 @@
       <c r="J29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>4344</v>
+      </c>
       <c r="L29" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+        <v>4345</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="107.25" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -17378,12 +17509,17 @@
       <c r="J30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>4347</v>
+      </c>
       <c r="L30" t="s">
         <v>3474</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+      <c r="M30" s="3" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -17408,9 +17544,14 @@
       <c r="J31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>4349</v>
+      </c>
       <c r="L31" t="s">
         <v>34</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>4350</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">

--- a/2136kanjivaamdoc.xlsx
+++ b/2136kanjivaamdoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\red\Downloads\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F35676-287C-44BE-A3F3-827B4E03FC67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85608EC-8651-4945-B944-6688155689CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{0E68F4E2-8A46-44BD-8634-2F057983B396}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12295" uniqueCount="4351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12339" uniqueCount="4406">
   <si>
     <t>亜</t>
   </si>
@@ -16120,6 +16120,196 @@
   <si>
     <t>Bộ thành phần: 木 MỘC 奇 KÌ, CƠ
 Nghĩa: Cây y, một loài cây lớn, lá hình trái tim, mùa hạ nở hoa màu vàng, gỗ dùng được. Một âm là ỷ.</t>
+  </si>
+  <si>
+    <t>VỊ, VỰNG, HỐI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イ, </t>
+  </si>
+  <si>
+    <t>イ, はりねずみ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 彑 KỆ
+Nghĩa: Loài, xếp từng loại với nhau gọi là vị tập [彙集]. Cùng nghĩa với chữ vị [蝟]. Dị dạng của chữ [汇].
+Giải nghĩa:
+Loài, xếp từng loại với nhau gọi là vị tập [彙集]. Ta quen đọc là vựng.</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 音 ÂM 心 TÂM
+Nghĩa: Ý chí. Ức đạc. Ý riêng. Nước Ý (Ý-đại-lợi). Nhà Phật [佛] cho ý là phần thức thứ bảy, tức là Mạt-na-thức [末那識] (phiên âm tiếng Phạn "manas"); nó hay phân biệt nghĩ ngợi.</t>
+  </si>
+  <si>
+    <t>イ、ちがう、ちがえる ,    ちがい   ,たがう ,   たがえる</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 韋 VI
+Nghĩa: Lìa. Trái. Lánh. Lầm lỗi.</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 糸 MỊCH 隹 CHUY
+Nghĩa: Buộc. Mép lưới, bốn giường lưới gọi là duy. Bên bờ cõi nước cũng gọi là duy. Phàm vật gì nhỏ mà dài đều gọi là duy. Bui, tiếng đệm.</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>ÚY, ỦY</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 尉 ÚY, UẤT 心 TÂM
+Nghĩa: Yên.
+Giải nghĩa:
+Yên. Như hân úy [欣慰] yên vui, úy lạo [慰勞] yên ủi. $ Ta quen đọc là ủy.</t>
+  </si>
+  <si>
+    <t>DI, DỊ</t>
+  </si>
+  <si>
+    <t>イ、ユイ, のこす</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 貴 QUÝ
+Nghĩa: Bỏ sót, mất, vô ý bỏ mất đi gọi là di. Rớt lại. Để lại.Một âm là dị.</t>
+  </si>
+  <si>
+    <t>Vĩ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 糸 MỊCH 韋 VI
+Nghĩa: Sợi ngang. Tên sách, sáu kinh đều có vĩ.</t>
+  </si>
+  <si>
+    <t>イ, よこいと  , ぬき</t>
+  </si>
+  <si>
+    <t>VỰC</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 土 THỔ, ĐỘ, ĐỖ 或 HOẶC
+Nghĩa: Bờ cõi. Nước. Trong khu vực mồ mả.</t>
+  </si>
+  <si>
+    <t>Dục</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 月 NGUYỆT
+Nghĩa: Nuôi, nuôi cho khôn lớn gọi là dục. Sinh. Thơ bé.</t>
+  </si>
+  <si>
+    <t>Nhất</t>
+  </si>
+  <si>
+    <t>Nghĩa: Một, là số đứng đầu các số đếm. Cùng. Dùng về lời nói hoặc giả thế chăng. Bao quát hết thẩy. Chuyên môn về một mặt.</t>
+  </si>
+  <si>
+    <t>イチ,イツ, ひとつ</t>
+  </si>
+  <si>
+    <t>Giải nghĩa:
+số một, một (thay cho 一)</t>
+  </si>
+  <si>
+    <t>DẬT</t>
+  </si>
+  <si>
+    <t>イツ, それる ,   そらす ,   はぐれる</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 免 MIỄN, VẤN
+Nghĩa: Lầm lỗi. Xổng ra. Ẩn dật. Phàm cái gì không câu nệ tục đời đều gọi là dật. Rỗi nhàn. Buông thả.</t>
+  </si>
+  <si>
+    <t>TÌ</t>
+  </si>
+  <si>
+    <t>シ  , ジ , いばら  ,  かや  ,  くさぶき</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 艹 THẢO 次 THỨ
+Nghĩa: Lợp cỏ tranh. Cỏ tật lê, thứ cỏ có gai. Tì cô [茨菰] cây tì cô. Chất chứa.</t>
+  </si>
+  <si>
+    <t>DỤ, HU, VU</t>
+  </si>
+  <si>
+    <t>ウ, いも</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 艹 THẢO 于 VU, HU, Ư, Ô
+Nghĩa: Khoai nước. Một âm là hu.</t>
+  </si>
+  <si>
+    <t>DẪN, DẤN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イン、ひく、ひける, びき </t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 弓 CUNG 丨 CỔN
+Nghĩa: Dương cung. Dắt. Rút ra. Bỏ đi. Kéo dài. Dẫn dụ. Tên thước đo. Phép bán muối lấy dẫn tính nhiều ít, mỗi dẫn là hai trăm cân, nên chỗ bán muối gọi là dẫn ngạn [引岸], số bán được bao nhiêu gọi là dẫn ngạch [引額]. Một âm là dấn. Khúc hát. Tên thể văn cũng như bài tựa.</t>
+  </si>
+  <si>
+    <t>Ấn</t>
+  </si>
+  <si>
+    <t>イン、しるし, じるし</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 卩 TIẾT
+Nghĩa: Cái ấn (con dấu). In. Như in vào, cái gì còn có dấu dính vào vật khác đều gọi là ấn.</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>イン、よる, ちなむ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 囗 VI 大 ĐẠI, THÁI
+Nghĩa: Nhưng, vẫn thế. Nương tựa. Nguyên nhân. Tính nhân. Chỗ duyên theo đó mà phát ra.</t>
+  </si>
+  <si>
+    <t>YẾT, YẾN, Ế</t>
+  </si>
+  <si>
+    <t>イン,エン   , エツ, むせぶ  ,  むせる ,   のど  ,  のむ</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 口 KHẨU 因 NHÂN
+Nghĩa: Cổ họng. Một âm là yến. Lại một âm là ế.</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 女 NỮ, NỨ, NHỮ 因 NHÂN
+Nghĩa: Nhà trai. Tục gọi các bà con bên ngoại là nhân.</t>
+  </si>
+  <si>
+    <t>Viện</t>
+  </si>
+  <si>
+    <t>VIÊN, VÂN</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 口 KHẨU 貝 BỐI
+Nghĩa: Số quan. Bức viên [幅員] cõi đất rộng hẹp. Một âm là vân, cùng nghĩa như chữ vân [云].</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 完 HOÀN
+Nghĩa: Tường bao chung quanh. Chái nhà, nơi chỗ. Tòa quan.</t>
+  </si>
+  <si>
+    <t>Dâm</t>
+  </si>
+  <si>
+    <t>イン、ひたす,    ほしいまま  ,  みだら  ,  みだれる  ,  みだり</t>
+  </si>
+  <si>
+    <t>Bộ thành phần: 氵 THỦY
+Nghĩa: Quá, phàm cái gì quá lắm đều gọi là dâm. Động, mê hoặc. Tà. Dâm dục, trai gái giao tiếp vô lễ gọi là dâm. Sao đi lạc lối thường.</t>
   </si>
 </sst>
 </file>
@@ -16519,8 +16709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1F94B5-2063-41A9-AB28-68C4F06C16DB}">
   <dimension ref="A1:M2159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17548,13 +17738,13 @@
         <v>4349</v>
       </c>
       <c r="L31" t="s">
-        <v>34</v>
+        <v>4352</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>4350</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" ht="93.75" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>32</v>
       </c>
@@ -17579,12 +17769,17 @@
       <c r="J32" s="1" t="s">
         <v>4324</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>4351</v>
+      </c>
       <c r="L32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4353</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="62.25" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -17606,12 +17801,17 @@
       <c r="J33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>4355</v>
+      </c>
       <c r="L33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M33" s="3" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -17633,12 +17833,17 @@
       <c r="J34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>3460</v>
+      </c>
       <c r="L34" t="s">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4357</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="62.25" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -17660,12 +17865,17 @@
       <c r="J35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>4360</v>
+      </c>
       <c r="L35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M35" s="3" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="77.25" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -17687,12 +17897,17 @@
       <c r="J36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>4361</v>
+      </c>
       <c r="L36" t="s">
         <v>3476</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M36" s="3" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -17714,12 +17929,17 @@
       <c r="J37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>4363</v>
+      </c>
       <c r="L37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4364</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -17741,12 +17961,17 @@
       <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>4366</v>
+      </c>
       <c r="L38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4368</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -17768,12 +17993,17 @@
       <c r="J39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>4369</v>
+      </c>
       <c r="L39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M39" s="3" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -17795,12 +18025,17 @@
       <c r="J40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>4371</v>
+      </c>
       <c r="L40" t="s">
         <v>3477</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M40" s="3" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -17822,12 +18057,17 @@
       <c r="J41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>4373</v>
+      </c>
       <c r="L41" t="s">
         <v>3478</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M41" s="3" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -17852,12 +18092,17 @@
       <c r="J42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>4373</v>
+      </c>
       <c r="L42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>4375</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="48.75" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>43</v>
       </c>
@@ -17882,12 +18127,17 @@
       <c r="J43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>4377</v>
+      </c>
       <c r="L43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+        <v>4378</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="48.75" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>44</v>
       </c>
@@ -17912,12 +18162,17 @@
       <c r="J44" s="1" t="s">
         <v>4300</v>
       </c>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>4380</v>
+      </c>
       <c r="L44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4381</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -17939,12 +18194,17 @@
       <c r="J45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>4383</v>
+      </c>
       <c r="L45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4384</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="92.25" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -17966,12 +18226,17 @@
       <c r="J46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>4386</v>
+      </c>
       <c r="L46" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4387</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -17993,12 +18258,17 @@
       <c r="J47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>4389</v>
+      </c>
       <c r="L47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4390</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -18020,12 +18290,17 @@
       <c r="J48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>4392</v>
+      </c>
       <c r="L48" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4393</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -18050,12 +18325,17 @@
       <c r="J49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>4395</v>
+      </c>
       <c r="L49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4396</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -18077,12 +18357,17 @@
       <c r="J50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>4392</v>
+      </c>
       <c r="L50" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M50" s="3" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -18104,12 +18389,17 @@
       <c r="J51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>4400</v>
+      </c>
       <c r="L51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+      <c r="M51" s="3" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -18131,12 +18421,17 @@
       <c r="J52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>4399</v>
+      </c>
       <c r="L52" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="M52" s="3" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="63.75" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>53</v>
       </c>
@@ -18161,12 +18456,17 @@
       <c r="J53" s="1" t="s">
         <v>4301</v>
       </c>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>4403</v>
+      </c>
       <c r="L53" t="s">
-        <v>3481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+        <v>4404</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>54</v>
       </c>
@@ -18193,7 +18493,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>55</v>
       </c>
@@ -18223,7 +18523,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -18253,7 +18553,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>57</v>
       </c>
@@ -18280,7 +18580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>58</v>
       </c>
@@ -18307,7 +18607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>59</v>
       </c>
@@ -18334,7 +18634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>60</v>
       </c>
@@ -18364,7 +18664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -18391,7 +18691,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -18421,7 +18721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>63</v>
       </c>
@@ -18451,7 +18751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>64</v>
       </c>
